--- a/MurrayaEcommerceScreenFlow.xlsx
+++ b/MurrayaEcommerceScreenFlow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ecommerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ecommerce\murraya_ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED741DA-4583-4729-994C-6ED305D67086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E8AD79-D57A-401A-BC7D-F7626A9D0395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{33F1403D-6499-4CA3-AC0E-035B6151F57F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{33F1403D-6499-4CA3-AC0E-035B6151F57F}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_flow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>1. User Flow Overview</t>
   </si>
@@ -240,6 +240,66 @@
   </si>
   <si>
     <t xml:space="preserve">   Reset Password</t>
+  </si>
+  <si>
+    <t>/users/products/trending/{categoryId}</t>
+  </si>
+  <si>
+    <t>/users/products/newArrivals</t>
+  </si>
+  <si>
+    <t>/users/products/search</t>
+  </si>
+  <si>
+    <t>/users/products/favorites/{productId}</t>
+  </si>
+  <si>
+    <t>Search bar Filters by query</t>
+  </si>
+  <si>
+    <t>/users/products/parentCategories</t>
+  </si>
+  <si>
+    <t>User favorite products</t>
+  </si>
+  <si>
+    <t>/users/products/discountProducts</t>
+  </si>
+  <si>
+    <t>/users/products/deliveryFreeProducts</t>
+  </si>
+  <si>
+    <t>/users/products/productsByCategory</t>
+  </si>
+  <si>
+    <t>/users/products/{productId}/view</t>
+  </si>
+  <si>
+    <t>/users/products/{productId}/purchase</t>
+  </si>
+  <si>
+    <t>/users/products/{productId}/like</t>
+  </si>
+  <si>
+    <t>Discount items</t>
+  </si>
+  <si>
+    <t>Deliveryfree items</t>
+  </si>
+  <si>
+    <t>Products By Category</t>
+  </si>
+  <si>
+    <t>view count</t>
+  </si>
+  <si>
+    <t>purchase count</t>
+  </si>
+  <si>
+    <t>like/favorite count</t>
+  </si>
+  <si>
+    <t>/users/userHome</t>
   </si>
 </sst>
 </file>
@@ -315,7 +375,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,14 +430,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -433,12 +487,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,9 +564,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -505,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -527,10 +599,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,8 +626,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB3B347"/>
       <color rgb="FFD6D58B"/>
-      <color rgb="FFB3B347"/>
       <color rgb="FF8C1946"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFFFE566"/>
@@ -860,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A780F48-B739-4F47-B180-C050C07F3FD3}">
   <dimension ref="B2:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,40 +958,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -1150,27 +1236,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B060EE-37FF-4343-A43D-A6EE49965D1A}">
-  <dimension ref="B5:E18"/>
+  <dimension ref="B5:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
@@ -1187,160 +1273,174 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="C9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="21" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>55</v>
+      <c r="B14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="D18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1360,26 +1460,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED8C5B-AC35-4D3B-86A8-5AE416B076F6}">
-  <dimension ref="B5:E9"/>
+  <dimension ref="B5:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -1396,26 +1497,116 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1429,7 +1620,7 @@
           <x14:formula1>
             <xm:f>status!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D7:E8</xm:sqref>
+          <xm:sqref>D7:E14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1441,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553CD232-9104-494C-878D-35F846EB131C}">
   <dimension ref="B5:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,12 +1645,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -1476,23 +1667,23 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4"/>
@@ -1536,12 +1727,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -1558,23 +1749,23 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4"/>
@@ -1618,12 +1809,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -1640,23 +1831,23 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4"/>
@@ -1699,12 +1890,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -1721,23 +1912,23 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4"/>
@@ -1745,25 +1936,25 @@
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1804,12 +1995,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -1826,53 +2017,53 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
